--- a/artfynd/A 85-2026 artfynd.xlsx
+++ b/artfynd/A 85-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131024484</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>131025531</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 85-2026 artfynd.xlsx
+++ b/artfynd/A 85-2026 artfynd.xlsx
@@ -785,7 +785,7 @@
         <v>131025531</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
